--- a/output/5Y_P16_KFSDIV.xlsx
+++ b/output/5Y_P16_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-33</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-31</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-29</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-28</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-27</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-26</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-24</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-23</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-21</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-15</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6367</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.0061</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.835</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.4216</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2404</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.382</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>11.9583</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2036</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9136</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.4338</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9657</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3568</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2487</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3991</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.5985</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.6955</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3398</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.8469</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.129</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.716</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.4613</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.6545</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2345</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.1636</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-33</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-31</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-29</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-28</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-27</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-26</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-24</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-23</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-21</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -5144,10 +5147,10 @@
         <v>156948.2586</v>
       </c>
       <c r="K16" s="1">
-        <v>127426.3816</v>
+        <v>127441.1894</v>
       </c>
       <c r="L16" s="1">
-        <v>13.232</v>
+        <v>13.2336</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -5197,10 +5200,10 @@
         <v>152996.538</v>
       </c>
       <c r="K17" s="1">
-        <v>143302.5672</v>
+        <v>143317.375</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3119</v>
+        <v>13.3133</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -5250,10 +5253,10 @@
         <v>164766.7855</v>
       </c>
       <c r="K18" s="1">
-        <v>171637.6086</v>
+        <v>171652.4165</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1318</v>
+        <v>13.1329</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -5303,10 +5306,10 @@
         <v>174559.899</v>
       </c>
       <c r="K19" s="1">
-        <v>179786.7337</v>
+        <v>179801.5415</v>
       </c>
       <c r="L19" s="1">
-        <v>13.0985</v>
+        <v>13.0996</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -5356,10 +5359,10 @@
         <v>198008.9898</v>
       </c>
       <c r="K20" s="1">
-        <v>190001.8372</v>
+        <v>190016.645</v>
       </c>
       <c r="L20" s="1">
-        <v>13.0603</v>
+        <v>13.0613</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-15</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -5409,10 +5412,10 @@
         <v>214646.0989</v>
       </c>
       <c r="K21" s="1">
-        <v>192699.3252</v>
+        <v>192714.133</v>
       </c>
       <c r="L21" s="1">
-        <v>13.0584</v>
+        <v>13.0594</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -5462,10 +5465,10 @@
         <v>232535.988</v>
       </c>
       <c r="K22" s="1">
-        <v>196064.8857</v>
+        <v>196079.6935</v>
       </c>
       <c r="L22" s="1">
-        <v>13.0638</v>
+        <v>13.0648</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -5515,10 +5518,10 @@
         <v>260575.196</v>
       </c>
       <c r="K23" s="1">
-        <v>198169.9542</v>
+        <v>198184.762</v>
       </c>
       <c r="L23" s="1">
-        <v>13.0722</v>
+        <v>13.0732</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -5568,10 +5571,10 @@
         <v>281656.8806</v>
       </c>
       <c r="K24" s="1">
-        <v>196870.8601</v>
+        <v>196890.8533</v>
       </c>
       <c r="L24" s="1">
-        <v>13.0629</v>
+        <v>13.0642</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -5621,10 +5624,10 @@
         <v>269313.7492</v>
       </c>
       <c r="K25" s="1">
-        <v>195784.8368</v>
+        <v>195809.1686</v>
       </c>
       <c r="L25" s="1">
-        <v>13.052</v>
+        <v>13.0536</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -5674,10 +5677,10 @@
         <v>290330.8799</v>
       </c>
       <c r="K26" s="1">
-        <v>228257.6361</v>
+        <v>228281.9679</v>
       </c>
       <c r="L26" s="1">
-        <v>13.1661</v>
+        <v>13.1675</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -5727,10 +5730,10 @@
         <v>301514.3521</v>
       </c>
       <c r="K27" s="1">
-        <v>233883.4864</v>
+        <v>233907.8182</v>
       </c>
       <c r="L27" s="1">
-        <v>13.1882</v>
+        <v>13.1896</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -5780,10 +5783,10 @@
         <v>310091.4433</v>
       </c>
       <c r="K28" s="1">
-        <v>242712.8193</v>
+        <v>242737.1511</v>
       </c>
       <c r="L28" s="1">
-        <v>13.2232</v>
+        <v>13.2245</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -5833,10 +5836,10 @@
         <v>351512.3809</v>
       </c>
       <c r="K29" s="1">
-        <v>254146.1305</v>
+        <v>254170.4623</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2621</v>
+        <v>13.2634</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -5886,10 +5889,10 @@
         <v>362108.9666</v>
       </c>
       <c r="K30" s="1">
-        <v>240886.3241</v>
+        <v>240963.6544</v>
       </c>
       <c r="L30" s="1">
-        <v>13.1631</v>
+        <v>13.1673</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -5939,10 +5942,10 @@
         <v>358498.9549</v>
       </c>
       <c r="K31" s="1">
-        <v>250327.4551</v>
+        <v>250404.7854</v>
       </c>
       <c r="L31" s="1">
-        <v>13.2354</v>
+        <v>13.2395</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -5992,10 +5995,10 @@
         <v>402660.4282</v>
       </c>
       <c r="K32" s="1">
-        <v>273994.2625</v>
+        <v>274071.5928</v>
       </c>
       <c r="L32" s="1">
-        <v>13.3485</v>
+        <v>13.3522</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -6045,10 +6048,10 @@
         <v>426869.6809</v>
       </c>
       <c r="K33" s="1">
-        <v>266731.3662</v>
+        <v>266837.7162</v>
       </c>
       <c r="L33" s="1">
-        <v>13.2978</v>
+        <v>13.3032</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -6098,10 +6101,10 @@
         <v>441427.1379</v>
       </c>
       <c r="K34" s="1">
-        <v>262505.2384</v>
+        <v>262628.4635</v>
       </c>
       <c r="L34" s="1">
-        <v>13.2593</v>
+        <v>13.2655</v>
       </c>
       <c r="M34" s="1">
         <v>0.75</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -6151,10 +6154,10 @@
         <v>478441.0158</v>
       </c>
       <c r="K35" s="1">
-        <v>267969.5933</v>
+        <v>268092.8184</v>
       </c>
       <c r="L35" s="1">
-        <v>13.3121</v>
+        <v>13.3182</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -6204,10 +6207,10 @@
         <v>484115.539</v>
       </c>
       <c r="K36" s="1">
-        <v>264282.695</v>
+        <v>264420.6537</v>
       </c>
       <c r="L36" s="1">
-        <v>13.2707</v>
+        <v>13.2776</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -6257,10 +6260,10 @@
         <v>501848.2016</v>
       </c>
       <c r="K37" s="1">
-        <v>278665.6246</v>
+        <v>278803.5833</v>
       </c>
       <c r="L37" s="1">
-        <v>13.4202</v>
+        <v>13.4269</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -6310,10 +6313,10 @@
         <v>489537.3713</v>
       </c>
       <c r="K38" s="1">
-        <v>298879.5704</v>
+        <v>299017.5291</v>
       </c>
       <c r="L38" s="1">
-        <v>13.5887</v>
+        <v>13.595</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6367</v>
@@ -6363,10 +6366,10 @@
         <v>481350.0829</v>
       </c>
       <c r="K39" s="1">
-        <v>331238.8676</v>
+        <v>331376.8264</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7481</v>
+        <v>13.7538</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.0061</v>
@@ -6416,10 +6419,10 @@
         <v>448904.5964</v>
       </c>
       <c r="K40" s="1">
-        <v>359409.4335</v>
+        <v>359547.3922</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8159</v>
+        <v>13.8212</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.835</v>
@@ -6469,10 +6472,10 @@
         <v>495254.9818</v>
       </c>
       <c r="K41" s="1">
-        <v>411952.4164</v>
+        <v>412090.3752</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7107</v>
+        <v>13.7153</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.4216</v>
@@ -6522,10 +6525,10 @@
         <v>522217.0236</v>
       </c>
       <c r="K42" s="1">
-        <v>397038.7707</v>
+        <v>397236.3294</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7051</v>
+        <v>13.7119</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2404</v>
@@ -6575,10 +6578,10 @@
         <v>498634.3295</v>
       </c>
       <c r="K43" s="1">
-        <v>390048.8184</v>
+        <v>390274.2875</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6924</v>
+        <v>13.7003</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.382</v>
@@ -6628,10 +6631,10 @@
         <v>491484.6876</v>
       </c>
       <c r="K44" s="1">
-        <v>433806.3196</v>
+        <v>434031.7887</v>
       </c>
       <c r="L44" s="1">
-        <v>13.6483</v>
+        <v>13.6554</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>11.9583</v>
@@ -6681,10 +6684,10 @@
         <v>486622.8576</v>
       </c>
       <c r="K45" s="1">
-        <v>471185.7176</v>
+        <v>471411.1867</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5408</v>
+        <v>13.5473</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2036</v>
@@ -6734,10 +6737,10 @@
         <v>505549.0103</v>
       </c>
       <c r="K46" s="1">
-        <v>495997.2979</v>
+        <v>496222.767</v>
       </c>
       <c r="L46" s="1">
-        <v>13.4533</v>
+        <v>13.4594</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9136</v>
@@ -6787,10 +6790,10 @@
         <v>554999.1762</v>
       </c>
       <c r="K47" s="1">
-        <v>496975.8726</v>
+        <v>497201.3418</v>
       </c>
       <c r="L47" s="1">
-        <v>13.4506</v>
+        <v>13.4567</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.4338</v>
@@ -6840,10 +6843,10 @@
         <v>583527.2415</v>
       </c>
       <c r="K48" s="1">
-        <v>480729.4371</v>
+        <v>481019.8192</v>
       </c>
       <c r="L48" s="1">
-        <v>13.4686</v>
+        <v>13.4767</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9657</v>
@@ -6893,10 +6896,10 @@
         <v>577152.3151</v>
       </c>
       <c r="K49" s="1">
-        <v>472167.1499</v>
+        <v>472491.7539</v>
       </c>
       <c r="L49" s="1">
-        <v>13.4687</v>
+        <v>13.478</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3568</v>
@@ -6946,10 +6949,10 @@
         <v>610989.9256</v>
       </c>
       <c r="K50" s="1">
-        <v>498647.8629</v>
+        <v>498972.4669</v>
       </c>
       <c r="L50" s="1">
-        <v>13.4425</v>
+        <v>13.4513</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2487</v>
@@ -6999,10 +7002,10 @@
         <v>617023.6387</v>
       </c>
       <c r="K51" s="1">
-        <v>494151.7684</v>
+        <v>494494.3452</v>
       </c>
       <c r="L51" s="1">
-        <v>13.443</v>
+        <v>13.4524</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3991</v>
@@ -7052,10 +7055,10 @@
         <v>632643.7161</v>
       </c>
       <c r="K52" s="1">
-        <v>508174.0378</v>
+        <v>508516.6146</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4384</v>
+        <v>13.4474</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.5985</v>
@@ -7105,10 +7108,10 @@
         <v>663829.4222</v>
       </c>
       <c r="K53" s="1">
-        <v>512515.3094</v>
+        <v>512857.8862</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4383</v>
+        <v>13.4472</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.6955</v>
@@ -7158,10 +7161,10 @@
         <v>677528.7637</v>
       </c>
       <c r="K54" s="1">
-        <v>514935.402</v>
+        <v>515277.9788</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4391</v>
+        <v>13.4481</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3398</v>
@@ -7211,10 +7214,10 @@
         <v>673737.9115</v>
       </c>
       <c r="K55" s="1">
-        <v>521251.6212</v>
+        <v>521594.198</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4425</v>
+        <v>13.4513</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.8469</v>
@@ -7264,10 +7267,10 @@
         <v>674159.9917</v>
       </c>
       <c r="K56" s="1">
-        <v>545112.5767</v>
+        <v>545455.1535</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4391</v>
+        <v>13.4476</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.129</v>
@@ -7317,10 +7320,10 @@
         <v>696115.6164000001</v>
       </c>
       <c r="K57" s="1">
-        <v>575184.8822</v>
+        <v>575527.459</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4083</v>
+        <v>13.4163</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.716</v>
@@ -7370,10 +7373,10 @@
         <v>688502.758</v>
       </c>
       <c r="K58" s="1">
-        <v>573100.8467</v>
+        <v>573451.7563</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4092</v>
+        <v>13.4174</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.4613</v>
@@ -7423,10 +7426,10 @@
         <v>698514.1864</v>
       </c>
       <c r="K59" s="1">
-        <v>600824.4558999999</v>
+        <v>601175.3655</v>
       </c>
       <c r="L59" s="1">
-        <v>13.3769</v>
+        <v>13.3847</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.6545</v>
@@ -7476,10 +7479,10 @@
         <v>717419.9203999999</v>
       </c>
       <c r="K60" s="1">
-        <v>622327.8186</v>
+        <v>622678.7282</v>
       </c>
       <c r="L60" s="1">
-        <v>13.344</v>
+        <v>13.3515</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2345</v>
@@ -7529,10 +7532,10 @@
         <v>707832.0508</v>
       </c>
       <c r="K61" s="1">
-        <v>623340.1969</v>
+        <v>623691.1065</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3429</v>
+        <v>13.3504</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.1636</v>
@@ -7582,10 +7585,10 @@
         <v>726852.752</v>
       </c>
       <c r="K62" s="1">
-        <v>653042.7415</v>
+        <v>653393.6511</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2894</v>
+        <v>13.2966</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-33</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-31</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-29</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-28</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-27</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-26</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-24</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-23</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-21</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -8456,10 +8459,10 @@
         <v>157151.0595</v>
       </c>
       <c r="K16" s="1">
-        <v>131795.1233</v>
+        <v>131808.9227</v>
       </c>
       <c r="L16" s="1">
-        <v>13.2465</v>
+        <v>13.2478</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -8509,10 +8512,10 @@
         <v>152687.5687</v>
       </c>
       <c r="K17" s="1">
-        <v>148590.9399</v>
+        <v>148604.7393</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3265</v>
+        <v>13.3278</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -8562,10 +8565,10 @@
         <v>164496.7675</v>
       </c>
       <c r="K18" s="1">
-        <v>174786.67</v>
+        <v>174800.4694</v>
       </c>
       <c r="L18" s="1">
-        <v>13.1603</v>
+        <v>13.1613</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -8615,10 +8618,10 @@
         <v>174277.9136</v>
       </c>
       <c r="K19" s="1">
-        <v>184786.67</v>
+        <v>184800.4694</v>
       </c>
       <c r="L19" s="1">
-        <v>13.1189</v>
+        <v>13.1198</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -8668,10 +8671,10 @@
         <v>198061.9784</v>
       </c>
       <c r="K20" s="1">
-        <v>194786.67</v>
+        <v>194800.4694</v>
       </c>
       <c r="L20" s="1">
-        <v>13.0812</v>
+        <v>13.0821</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-15</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -8721,10 +8724,10 @@
         <v>214989.2755</v>
       </c>
       <c r="K21" s="1">
-        <v>201888.7692</v>
+        <v>201902.5686</v>
       </c>
       <c r="L21" s="1">
-        <v>13.0757</v>
+        <v>13.0766</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -8774,10 +8777,10 @@
         <v>233263.3243</v>
       </c>
       <c r="K22" s="1">
-        <v>205943.2669</v>
+        <v>205957.0663</v>
       </c>
       <c r="L22" s="1">
-        <v>13.0816</v>
+        <v>13.0825</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -8827,10 +8830,10 @@
         <v>262213.4951</v>
       </c>
       <c r="K23" s="1">
-        <v>208713.0339</v>
+        <v>208726.8333</v>
       </c>
       <c r="L23" s="1">
-        <v>13.0919</v>
+        <v>13.0928</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -8880,10 +8883,10 @@
         <v>283896.8301</v>
       </c>
       <c r="K24" s="1">
-        <v>207937.2424</v>
+        <v>207954.1384</v>
       </c>
       <c r="L24" s="1">
-        <v>13.0867</v>
+        <v>13.0878</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -8933,10 +8936,10 @@
         <v>270280.7199</v>
       </c>
       <c r="K25" s="1">
-        <v>207411.5287</v>
+        <v>207430.5249</v>
       </c>
       <c r="L25" s="1">
-        <v>13.0817</v>
+        <v>13.0829</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -8986,10 +8989,10 @@
         <v>291934.7824</v>
       </c>
       <c r="K26" s="1">
-        <v>242382.8036</v>
+        <v>242401.7998</v>
       </c>
       <c r="L26" s="1">
-        <v>13.1936</v>
+        <v>13.1947</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -9039,10 +9042,10 @@
         <v>303189.4169</v>
       </c>
       <c r="K27" s="1">
-        <v>249021.9741</v>
+        <v>249040.9703</v>
       </c>
       <c r="L27" s="1">
-        <v>13.2175</v>
+        <v>13.2186</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -9092,10 +9095,10 @@
         <v>311671.1857</v>
       </c>
       <c r="K28" s="1">
-        <v>259109.0787</v>
+        <v>259128.0749</v>
       </c>
       <c r="L28" s="1">
-        <v>13.254</v>
+        <v>13.255</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -9145,10 +9148,10 @@
         <v>355196.9265</v>
       </c>
       <c r="K29" s="1">
-        <v>272023.1989</v>
+        <v>272042.1951</v>
       </c>
       <c r="L29" s="1">
-        <v>13.2938</v>
+        <v>13.2947</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -9198,10 +9201,10 @@
         <v>365835.5826</v>
       </c>
       <c r="K30" s="1">
-        <v>258631.1585</v>
+        <v>258703.6817</v>
       </c>
       <c r="L30" s="1">
-        <v>13.2017</v>
+        <v>13.2054</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -9251,10 +9254,10 @@
         <v>361225.49</v>
       </c>
       <c r="K31" s="1">
-        <v>269534.7877</v>
+        <v>269607.3109</v>
       </c>
       <c r="L31" s="1">
-        <v>13.2783</v>
+        <v>13.2818</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -9304,10 +9307,10 @@
         <v>407933.4759</v>
       </c>
       <c r="K32" s="1">
-        <v>295762.2792</v>
+        <v>295834.8024</v>
       </c>
       <c r="L32" s="1">
-        <v>13.3912</v>
+        <v>13.3945</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -9357,10 +9360,10 @@
         <v>433261.7836</v>
       </c>
       <c r="K33" s="1">
-        <v>288804.8199</v>
+        <v>288905.1424</v>
       </c>
       <c r="L33" s="1">
-        <v>13.3472</v>
+        <v>13.3518</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -9410,10 +9413,10 @@
         <v>448190.7622</v>
       </c>
       <c r="K34" s="1">
-        <v>285133.925</v>
+        <v>285248.9056</v>
       </c>
       <c r="L34" s="1">
-        <v>13.3167</v>
+        <v>13.3221</v>
       </c>
       <c r="M34" s="1">
         <v>0.75</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -9463,10 +9466,10 @@
         <v>487441.0487</v>
       </c>
       <c r="K35" s="1">
-        <v>291962.6355</v>
+        <v>292077.6161</v>
       </c>
       <c r="L35" s="1">
-        <v>13.3765</v>
+        <v>13.3817</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -9516,10 +9519,10 @@
         <v>492738.9278</v>
       </c>
       <c r="K36" s="1">
-        <v>288914.9079</v>
+        <v>289042.0678</v>
       </c>
       <c r="L36" s="1">
-        <v>13.3455</v>
+        <v>13.3514</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -9569,10 +9572,10 @@
         <v>511112.7046</v>
       </c>
       <c r="K37" s="1">
-        <v>305531.4325</v>
+        <v>305658.5924</v>
       </c>
       <c r="L37" s="1">
-        <v>13.5008</v>
+        <v>13.5064</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -9622,10 +9625,10 @@
         <v>496730.5169</v>
       </c>
       <c r="K38" s="1">
-        <v>328574.602</v>
+        <v>328701.7619</v>
       </c>
       <c r="L38" s="1">
-        <v>13.6719</v>
+        <v>13.6772</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6367</v>
@@ -9675,10 +9678,10 @@
         <v>486802.885</v>
       </c>
       <c r="K39" s="1">
-        <v>364976.9034</v>
+        <v>365104.0633</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8281</v>
+        <v>13.8329</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.0061</v>
@@ -9728,10 +9731,10 @@
         <v>450180.9696</v>
       </c>
       <c r="K40" s="1">
-        <v>396913.3465</v>
+        <v>397040.5064</v>
       </c>
       <c r="L40" s="1">
-        <v>13.892</v>
+        <v>13.8964</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.835</v>
@@ -9781,10 +9784,10 @@
         <v>500170.5556</v>
       </c>
       <c r="K41" s="1">
-        <v>455729.5628</v>
+        <v>455856.7227</v>
       </c>
       <c r="L41" s="1">
-        <v>13.7747</v>
+        <v>13.7785</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.4216</v>
@@ -9834,10 +9837,10 @@
         <v>528896.161</v>
       </c>
       <c r="K42" s="1">
-        <v>440448.1278</v>
+        <v>440636.3575</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7716</v>
+        <v>13.7775</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2404</v>
@@ -9887,10 +9890,10 @@
         <v>501726.1458</v>
       </c>
       <c r="K43" s="1">
-        <v>433904.3358</v>
+        <v>434118.6945</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7619</v>
+        <v>13.7687</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.382</v>
@@ -9940,10 +9943,10 @@
         <v>492661.9037</v>
       </c>
       <c r="K44" s="1">
-        <v>483541.6293</v>
+        <v>483755.9879</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7094</v>
+        <v>13.7155</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>11.9583</v>
@@ -9993,10 +9996,10 @@
         <v>486122.879</v>
       </c>
       <c r="K45" s="1">
-        <v>526259.2647000001</v>
+        <v>526473.6233</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5935</v>
+        <v>13.5991</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2036</v>
@@ -10046,10 +10049,10 @@
         <v>506074.5493</v>
       </c>
       <c r="K46" s="1">
-        <v>555134.9234</v>
+        <v>555349.2821</v>
       </c>
       <c r="L46" s="1">
-        <v>13.4991</v>
+        <v>13.5043</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9136</v>
@@ -10099,10 +10102,10 @@
         <v>560148.7119</v>
       </c>
       <c r="K47" s="1">
-        <v>557531.3426</v>
+        <v>557745.7012</v>
       </c>
       <c r="L47" s="1">
-        <v>13.4931</v>
+        <v>13.4983</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.4338</v>
@@ -10152,10 +10155,10 @@
         <v>590922.6144</v>
       </c>
       <c r="K48" s="1">
-        <v>540701.1222</v>
+        <v>540982.7263</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5111</v>
+        <v>13.5181</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9657</v>
@@ -10205,10 +10208,10 @@
         <v>582515.2238</v>
       </c>
       <c r="K49" s="1">
-        <v>532473.1232</v>
+        <v>532787.6131</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5119</v>
+        <v>13.5198</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3568</v>
@@ -10258,10 +10261,10 @@
         <v>619348.1957</v>
       </c>
       <c r="K50" s="1">
-        <v>563646.731</v>
+        <v>563961.221</v>
       </c>
       <c r="L50" s="1">
-        <v>13.482</v>
+        <v>13.4895</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2487</v>
@@ -10311,10 +10314,10 @@
         <v>624866.4275</v>
       </c>
       <c r="K51" s="1">
-        <v>560019.7280999999</v>
+        <v>560348.7167</v>
       </c>
       <c r="L51" s="1">
-        <v>13.4827</v>
+        <v>13.4906</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3991</v>
@@ -10364,10 +10367,10 @@
         <v>641227.7084999999</v>
       </c>
       <c r="K52" s="1">
-        <v>577339.0582</v>
+        <v>577668.0468</v>
       </c>
       <c r="L52" s="1">
-        <v>13.4763</v>
+        <v>13.484</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.5985</v>
@@ -10417,10 +10420,10 @@
         <v>675245.4089</v>
       </c>
       <c r="K53" s="1">
-        <v>583766.5499</v>
+        <v>584095.5385</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4758</v>
+        <v>13.4834</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.6955</v>
@@ -10470,10 +10473,10 @@
         <v>689452.1135</v>
       </c>
       <c r="K54" s="1">
-        <v>588059.4904</v>
+        <v>588388.4790000001</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4769</v>
+        <v>13.4844</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3398</v>
@@ -10523,10 +10526,10 @@
         <v>683699.8202</v>
       </c>
       <c r="K55" s="1">
-        <v>596831.5778</v>
+        <v>597160.5664</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4804</v>
+        <v>13.4878</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.8469</v>
@@ -10576,10 +10579,10 @@
         <v>682698.1216</v>
       </c>
       <c r="K56" s="1">
-        <v>625689.8379</v>
+        <v>626018.8265</v>
       </c>
       <c r="L56" s="1">
-        <v>13.4751</v>
+        <v>13.4822</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.129</v>
@@ -10629,10 +10632,10 @@
         <v>706413.8574</v>
       </c>
       <c r="K57" s="1">
-        <v>661765.1034</v>
+        <v>662094.0919999999</v>
       </c>
       <c r="L57" s="1">
-        <v>13.4408</v>
+        <v>13.4475</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.716</v>
@@ -10682,10 +10685,10 @@
         <v>696146.048</v>
       </c>
       <c r="K58" s="1">
-        <v>661058.7845</v>
+        <v>661390.5972</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4411</v>
+        <v>13.4479</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.4613</v>
@@ -10735,10 +10738,10 @@
         <v>706117.9759</v>
       </c>
       <c r="K59" s="1">
-        <v>694682.9865999999</v>
+        <v>695014.7994</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4055</v>
+        <v>13.4119</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.6545</v>
@@ -10788,10 +10791,10 @@
         <v>726413.0612</v>
       </c>
       <c r="K60" s="1">
-        <v>721250.1683</v>
+        <v>721581.9811</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3693</v>
+        <v>13.3754</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2345</v>
@@ -10841,10 +10844,10 @@
         <v>713687.9912</v>
       </c>
       <c r="K61" s="1">
-        <v>724215.3882</v>
+        <v>724547.201</v>
       </c>
       <c r="L61" s="1">
-        <v>13.3663</v>
+        <v>13.3724</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.1636</v>
@@ -10894,10 +10897,10 @@
         <v>734132.2770999999</v>
       </c>
       <c r="K62" s="1">
-        <v>760495.0085</v>
+        <v>760826.8212</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3089</v>
+        <v>13.3147</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-33</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-31</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-29</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-28</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-27</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-26</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-24</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-23</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-21</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -11768,10 +11771,10 @@
         <v>157360.8642</v>
       </c>
       <c r="K16" s="1">
-        <v>136341.8021</v>
+        <v>136354.4906</v>
       </c>
       <c r="L16" s="1">
-        <v>13.2605</v>
+        <v>13.2617</v>
       </c>
       <c r="M16" s="1">
         <v>0.5</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -11821,10 +11824,10 @@
         <v>152362.3366</v>
       </c>
       <c r="K17" s="1">
-        <v>154113.6703</v>
+        <v>154126.3587</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3407</v>
+        <v>13.3418</v>
       </c>
       <c r="M17" s="1">
         <v>0</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -11874,10 +11877,10 @@
         <v>164188.9193</v>
       </c>
       <c r="K18" s="1">
-        <v>175061.3931</v>
+        <v>175074.0815</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2057</v>
+        <v>13.2066</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -11927,10 +11930,10 @@
         <v>173970.381</v>
       </c>
       <c r="K19" s="1">
-        <v>185061.3931</v>
+        <v>185074.0815</v>
       </c>
       <c r="L19" s="1">
-        <v>13.1616</v>
+        <v>13.1625</v>
       </c>
       <c r="M19" s="1">
         <v>0.5</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -11980,10 +11983,10 @@
         <v>197730.766</v>
       </c>
       <c r="K20" s="1">
-        <v>195061.3931</v>
+        <v>195074.0815</v>
       </c>
       <c r="L20" s="1">
-        <v>13.1216</v>
+        <v>13.1224</v>
       </c>
       <c r="M20" s="1">
         <v>0</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-15</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -12033,10 +12036,10 @@
         <v>214931.4608</v>
       </c>
       <c r="K21" s="1">
-        <v>211388.7136</v>
+        <v>211401.402</v>
       </c>
       <c r="L21" s="1">
-        <v>13.1063</v>
+        <v>13.1071</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -12086,10 +12089,10 @@
         <v>233611.5404</v>
       </c>
       <c r="K22" s="1">
-        <v>216668.4044</v>
+        <v>216681.0928</v>
       </c>
       <c r="L22" s="1">
-        <v>13.1129</v>
+        <v>13.1136</v>
       </c>
       <c r="M22" s="1">
         <v>0.5</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -12139,10 +12142,10 @@
         <v>263531.1519</v>
       </c>
       <c r="K23" s="1">
-        <v>220183.1643</v>
+        <v>220195.8527</v>
       </c>
       <c r="L23" s="1">
-        <v>13.1248</v>
+        <v>13.1256</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -12192,10 +12195,10 @@
         <v>285857.8064</v>
       </c>
       <c r="K24" s="1">
-        <v>220008.2265</v>
+        <v>220021.6132</v>
       </c>
       <c r="L24" s="1">
-        <v>13.1238</v>
+        <v>13.1246</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -12245,10 +12248,10 @@
         <v>270875.4661</v>
       </c>
       <c r="K25" s="1">
-        <v>220129.214</v>
+        <v>220142.6007</v>
       </c>
       <c r="L25" s="1">
-        <v>13.1248</v>
+        <v>13.1256</v>
       </c>
       <c r="M25" s="1">
         <v>0.5</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -12298,10 +12301,10 @@
         <v>293213.6208</v>
       </c>
       <c r="K26" s="1">
-        <v>257833.258</v>
+        <v>257846.6447</v>
       </c>
       <c r="L26" s="1">
-        <v>13.2326</v>
+        <v>13.2333</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -12351,10 +12354,10 @@
         <v>304544.9083</v>
       </c>
       <c r="K27" s="1">
-        <v>265620.3675</v>
+        <v>265633.7542</v>
       </c>
       <c r="L27" s="1">
-        <v>13.2579</v>
+        <v>13.2586</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -12404,10 +12407,10 @@
         <v>312923.1352</v>
       </c>
       <c r="K28" s="1">
-        <v>277128.2753</v>
+        <v>277141.662</v>
       </c>
       <c r="L28" s="1">
-        <v>13.2953</v>
+        <v>13.2959</v>
       </c>
       <c r="M28" s="1">
         <v>0.5</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -12457,10 +12460,10 @@
         <v>358735.613</v>
       </c>
       <c r="K29" s="1">
-        <v>291714.9108</v>
+        <v>291728.2975</v>
       </c>
       <c r="L29" s="1">
-        <v>13.3354</v>
+        <v>13.336</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -12510,10 +12513,10 @@
         <v>369420.1758</v>
       </c>
       <c r="K30" s="1">
-        <v>278252.2859</v>
+        <v>278319.4817</v>
       </c>
       <c r="L30" s="1">
-        <v>13.2508</v>
+        <v>13.254</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -12563,10 +12566,10 @@
         <v>363714.8034</v>
       </c>
       <c r="K31" s="1">
-        <v>290830.8833</v>
+        <v>290898.0792</v>
       </c>
       <c r="L31" s="1">
-        <v>13.3311</v>
+        <v>13.3342</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -12616,10 +12619,10 @@
         <v>413215.4958</v>
       </c>
       <c r="K32" s="1">
-        <v>319947.3191</v>
+        <v>320014.5149</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4431</v>
+        <v>13.4459</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -12669,10 +12672,10 @@
         <v>439777.4067</v>
       </c>
       <c r="K33" s="1">
-        <v>313417.0984</v>
+        <v>313510.3865</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4057</v>
+        <v>13.4097</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -12722,10 +12725,10 @@
         <v>455117.3317</v>
       </c>
       <c r="K34" s="1">
-        <v>310456.6403</v>
+        <v>310561.7496</v>
       </c>
       <c r="L34" s="1">
-        <v>13.3835</v>
+        <v>13.3881</v>
       </c>
       <c r="M34" s="1">
         <v>0.75</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -12775,10 +12778,10 @@
         <v>496845.275</v>
       </c>
       <c r="K35" s="1">
-        <v>318899.8244</v>
+        <v>319004.9337</v>
       </c>
       <c r="L35" s="1">
-        <v>13.4501</v>
+        <v>13.4545</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -12828,10 +12831,10 @@
         <v>501723.6944</v>
       </c>
       <c r="K36" s="1">
-        <v>316674.0887</v>
+        <v>316788.0925</v>
       </c>
       <c r="L36" s="1">
-        <v>13.4298</v>
+        <v>13.4346</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -12881,10 +12884,10 @@
         <v>520807.5217</v>
       </c>
       <c r="K37" s="1">
-        <v>335898.2303</v>
+        <v>336012.2341</v>
       </c>
       <c r="L37" s="1">
-        <v>13.5903</v>
+        <v>13.5949</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -12934,10 +12937,10 @@
         <v>504102.2532</v>
       </c>
       <c r="K38" s="1">
-        <v>362230.9361</v>
+        <v>362344.94</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7634</v>
+        <v>13.7678</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6367</v>
@@ -12987,10 +12990,10 @@
         <v>492216.0178</v>
       </c>
       <c r="K39" s="1">
-        <v>403302.7047</v>
+        <v>403416.7086</v>
       </c>
       <c r="L39" s="1">
-        <v>13.9155</v>
+        <v>13.9195</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.0061</v>
@@ -13040,10 +13043,10 @@
         <v>450878.4489</v>
       </c>
       <c r="K40" s="1">
-        <v>439620.7285</v>
+        <v>439734.7323</v>
       </c>
       <c r="L40" s="1">
-        <v>13.9746</v>
+        <v>13.9782</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.835</v>
@@ -13093,10 +13096,10 @@
         <v>504182.3497</v>
       </c>
       <c r="K41" s="1">
-        <v>492164.3966</v>
+        <v>492278.4004</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8676</v>
+        <v>13.8708</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.4216</v>
@@ -13146,10 +13149,10 @@
         <v>534912.6675</v>
       </c>
       <c r="K42" s="1">
-        <v>490997.4525</v>
+        <v>491116.1198</v>
       </c>
       <c r="L42" s="1">
-        <v>13.8676</v>
+        <v>13.8709</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2404</v>
@@ -13199,10 +13202,10 @@
         <v>503650.8095</v>
       </c>
       <c r="K43" s="1">
-        <v>485132.3531</v>
+        <v>485274.4394</v>
       </c>
       <c r="L43" s="1">
-        <v>13.8608</v>
+        <v>13.8649</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.382</v>
@@ -13252,10 +13255,10 @@
         <v>492758.1408</v>
       </c>
       <c r="K44" s="1">
-        <v>536292.6497</v>
+        <v>536434.736</v>
       </c>
       <c r="L44" s="1">
-        <v>13.8019</v>
+        <v>13.8055</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>11.9583</v>
@@ -13305,10 +13308,10 @@
         <v>485469.0765</v>
       </c>
       <c r="K45" s="1">
-        <v>558892.759</v>
+        <v>559034.8453</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7394</v>
+        <v>13.7429</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2036</v>
@@ -13358,10 +13361,10 @@
         <v>505591.4084</v>
       </c>
       <c r="K46" s="1">
-        <v>568892.759</v>
+        <v>569034.8453</v>
       </c>
       <c r="L46" s="1">
-        <v>13.7041</v>
+        <v>13.7075</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9136</v>
@@ -13411,10 +13414,10 @@
         <v>560491.3688000001</v>
       </c>
       <c r="K47" s="1">
-        <v>578892.759</v>
+        <v>579034.8453</v>
       </c>
       <c r="L47" s="1">
-        <v>13.6756</v>
+        <v>13.6789</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.4338</v>
@@ -13464,10 +13467,10 @@
         <v>593366.1691000001</v>
       </c>
       <c r="K48" s="1">
-        <v>603837.329</v>
+        <v>603979.4153</v>
       </c>
       <c r="L48" s="1">
-        <v>13.6435</v>
+        <v>13.6467</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9657</v>
@@ -13517,10 +13520,10 @@
         <v>582580.5641</v>
       </c>
       <c r="K49" s="1">
-        <v>606746.2295</v>
+        <v>606888.3158</v>
       </c>
       <c r="L49" s="1">
-        <v>13.6426</v>
+        <v>13.6458</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3568</v>
@@ -13570,10 +13573,10 @@
         <v>622392.1699</v>
       </c>
       <c r="K50" s="1">
-        <v>623837.329</v>
+        <v>623979.4153</v>
       </c>
       <c r="L50" s="1">
-        <v>13.6239</v>
+        <v>13.627</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2487</v>
@@ -13623,10 +13626,10 @@
         <v>627233.9286</v>
       </c>
       <c r="K51" s="1">
-        <v>641873.6767</v>
+        <v>642015.763</v>
       </c>
       <c r="L51" s="1">
-        <v>13.617</v>
+        <v>13.62</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3991</v>
@@ -13676,10 +13679,10 @@
         <v>644411.4705000001</v>
       </c>
       <c r="K52" s="1">
-        <v>655845.4091</v>
+        <v>655987.4955</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6096</v>
+        <v>13.6125</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.5985</v>
@@ -13729,10 +13732,10 @@
         <v>681457.9926</v>
       </c>
       <c r="K53" s="1">
-        <v>665845.4091</v>
+        <v>665987.4955</v>
       </c>
       <c r="L53" s="1">
-        <v>13.6068</v>
+        <v>13.6097</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.6955</v>
@@ -13782,10 +13785,10 @@
         <v>696237.3116</v>
       </c>
       <c r="K54" s="1">
-        <v>679479.1792</v>
+        <v>679621.2656</v>
       </c>
       <c r="L54" s="1">
-        <v>13.6072</v>
+        <v>13.61</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3398</v>
@@ -13835,10 +13838,10 @@
         <v>688152.1463</v>
       </c>
       <c r="K55" s="1">
-        <v>691470.2013</v>
+        <v>691612.2876</v>
       </c>
       <c r="L55" s="1">
-        <v>13.6091</v>
+        <v>13.6119</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.8469</v>
@@ -13888,10 +13891,10 @@
         <v>685991.3382999999</v>
       </c>
       <c r="K56" s="1">
-        <v>713193.8181</v>
+        <v>713335.9044</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6016</v>
+        <v>13.6043</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.129</v>
@@ -13941,10 +13944,10 @@
         <v>711175.6142</v>
       </c>
       <c r="K57" s="1">
-        <v>736912.3137000001</v>
+        <v>737054.4</v>
       </c>
       <c r="L57" s="1">
-        <v>13.5769</v>
+        <v>13.5795</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.716</v>
@@ -13994,10 +13997,10 @@
         <v>698454.8093</v>
       </c>
       <c r="K58" s="1">
-        <v>746912.3137000001</v>
+        <v>747054.4</v>
       </c>
       <c r="L58" s="1">
-        <v>13.5711</v>
+        <v>13.5736</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.4613</v>
@@ -14047,10 +14050,10 @@
         <v>709084.943</v>
       </c>
       <c r="K59" s="1">
-        <v>756912.3137000001</v>
+        <v>757054.4</v>
       </c>
       <c r="L59" s="1">
-        <v>13.5594</v>
+        <v>13.5619</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.6545</v>
@@ -14100,10 +14103,10 @@
         <v>730131.9392</v>
       </c>
       <c r="K60" s="1">
-        <v>781772.3517</v>
+        <v>781914.438</v>
       </c>
       <c r="L60" s="1">
-        <v>13.5224</v>
+        <v>13.5249</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2345</v>
@@ -14153,10 +14156,10 @@
         <v>715526.1431</v>
       </c>
       <c r="K61" s="1">
-        <v>791772.3517</v>
+        <v>791914.438</v>
       </c>
       <c r="L61" s="1">
-        <v>13.5111</v>
+        <v>13.5135</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.1636</v>
@@ -14206,10 +14209,10 @@
         <v>737107.8094</v>
       </c>
       <c r="K62" s="1">
-        <v>801772.3517</v>
+        <v>801914.438</v>
       </c>
       <c r="L62" s="1">
-        <v>13.4939</v>
+        <v>13.4963</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-34</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>11.8576</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-33</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5699</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-32</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.5994</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-31</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>14.6663</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-30</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.701</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-29</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.8109</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-28</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.9322</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-27</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12.5846</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-26</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.2867</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.0645</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-24</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.8083</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-23</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.5636</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-22</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.1788</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-21</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>14.5668</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.962</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2659</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.4103</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-17</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>12.3976</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>12.9013</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-15</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.3527</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>13.8804</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>14.6268</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3636</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-11</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>13.8711</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1252</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-9</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>14.1934</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.1176</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-7</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>15.3311</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>-6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.3637</v>
@@ -15822,10 +15825,10 @@
         <v>371106.9465</v>
       </c>
       <c r="K30" s="1">
-        <v>301620.3814</v>
+        <v>301642.7353</v>
       </c>
       <c r="L30" s="1">
-        <v>13.3837</v>
+        <v>13.3847</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>-5</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>14.6447</v>
@@ -15875,10 +15878,10 @@
         <v>364201.2799</v>
       </c>
       <c r="K31" s="1">
-        <v>316115.8273</v>
+        <v>316138.1812</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4644</v>
+        <v>13.4653</v>
       </c>
       <c r="M31" s="1">
         <v>1</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>-4</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.486</v>
@@ -15928,10 +15931,10 @@
         <v>416696.703</v>
       </c>
       <c r="K32" s="1">
-        <v>347177.857</v>
+        <v>347200.2108</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5644</v>
+        <v>13.5653</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>-3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>16.1958</v>
@@ -15981,10 +15984,10 @@
         <v>444619.5033</v>
       </c>
       <c r="K33" s="1">
-        <v>342610.6527</v>
+        <v>342651.2553</v>
       </c>
       <c r="L33" s="1">
-        <v>13.5417</v>
+        <v>13.5433</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>-2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.4264</v>
@@ -16034,10 +16037,10 @@
         <v>460414.3508</v>
       </c>
       <c r="K34" s="1">
-        <v>340544.8678</v>
+        <v>340593.7193</v>
       </c>
       <c r="L34" s="1">
-        <v>13.5281</v>
+        <v>13.5301</v>
       </c>
       <c r="M34" s="1">
         <v>0.75</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>17.107</v>
@@ -16087,10 +16090,10 @@
         <v>504889.535</v>
       </c>
       <c r="K35" s="1">
-        <v>350894.576</v>
+        <v>350943.4275</v>
       </c>
       <c r="L35" s="1">
-        <v>13.5996</v>
+        <v>13.6015</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>16.8894</v>
@@ -16140,10 +16143,10 @@
         <v>509300.3713</v>
       </c>
       <c r="K36" s="1">
-        <v>349709.9795</v>
+        <v>349763.5649</v>
       </c>
       <c r="L36" s="1">
-        <v>13.59</v>
+        <v>13.5921</v>
       </c>
       <c r="M36" s="1">
         <v>1</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>16.4004</v>
@@ -16193,10 +16196,10 @@
         <v>529171.2082</v>
       </c>
       <c r="K37" s="1">
-        <v>371978.0572</v>
+        <v>372031.6425</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7522</v>
+        <v>13.7542</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>15.3877</v>
@@ -16246,10 +16249,10 @@
         <v>509857.7014</v>
       </c>
       <c r="K38" s="1">
-        <v>402137.1771</v>
+        <v>402190.7625</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9226</v>
+        <v>13.9244</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>14.6367</v>
@@ -16299,10 +16302,10 @@
         <v>495764.655</v>
       </c>
       <c r="K39" s="1">
-        <v>448607.1606</v>
+        <v>448660.746</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0639</v>
+        <v>14.0656</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>13.0061</v>
@@ -16352,10 +16355,10 @@
         <v>449279.8536</v>
       </c>
       <c r="K40" s="1">
-        <v>488428.1177</v>
+        <v>488481.703</v>
       </c>
       <c r="L40" s="1">
-        <v>14.1111</v>
+        <v>14.1127</v>
       </c>
       <c r="M40" s="1">
         <v>0.5</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>13.835</v>
@@ -16405,10 +16408,10 @@
         <v>504082.3006</v>
       </c>
       <c r="K41" s="1">
-        <v>498428.1177</v>
+        <v>498481.703</v>
       </c>
       <c r="L41" s="1">
-        <v>14.0877</v>
+        <v>14.0892</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>14.4216</v>
@@ -16458,10 +16461,10 @@
         <v>535775.4705000001</v>
       </c>
       <c r="K42" s="1">
-        <v>524003.9556</v>
+        <v>524057.541</v>
       </c>
       <c r="L42" s="1">
-        <v>14.0766</v>
+        <v>14.078</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>13.2404</v>
@@ -16511,10 +16514,10 @@
         <v>501034.8832</v>
       </c>
       <c r="K43" s="1">
-        <v>534003.9556</v>
+        <v>534057.541</v>
       </c>
       <c r="L43" s="1">
-        <v>14.0834</v>
+        <v>14.0848</v>
       </c>
       <c r="M43" s="1">
         <v>0.4</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>12.382</v>
@@ -16564,10 +16567,10 @@
         <v>491515.6886</v>
       </c>
       <c r="K44" s="1">
-        <v>544003.9556</v>
+        <v>544057.541</v>
       </c>
       <c r="L44" s="1">
-        <v>14.0675</v>
+        <v>14.0689</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>11.9583</v>
@@ -16617,10 +16620,10 @@
         <v>484265.0802</v>
       </c>
       <c r="K45" s="1">
-        <v>567654.1693</v>
+        <v>567707.7546</v>
       </c>
       <c r="L45" s="1">
-        <v>13.9895</v>
+        <v>13.9908</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>12.2036</v>
@@ -16670,10 +16673,10 @@
         <v>504362.7156</v>
       </c>
       <c r="K46" s="1">
-        <v>577654.1693</v>
+        <v>577707.7546</v>
       </c>
       <c r="L46" s="1">
-        <v>13.949</v>
+        <v>13.9503</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>12.9136</v>
@@ -16723,10 +16726,10 @@
         <v>559154.8708</v>
       </c>
       <c r="K47" s="1">
-        <v>587654.1693</v>
+        <v>587707.7546</v>
       </c>
       <c r="L47" s="1">
-        <v>13.9157</v>
+        <v>13.917</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.4338</v>
@@ -16776,10 +16779,10 @@
         <v>591975.99</v>
       </c>
       <c r="K48" s="1">
-        <v>612562.4208</v>
+        <v>612616.0061999999</v>
       </c>
       <c r="L48" s="1">
-        <v>13.8731</v>
+        <v>13.8743</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>12.9657</v>
@@ -16829,10 +16832,10 @@
         <v>580964.409</v>
       </c>
       <c r="K49" s="1">
-        <v>622562.4208</v>
+        <v>622616.0061999999</v>
       </c>
       <c r="L49" s="1">
-        <v>13.8663</v>
+        <v>13.8675</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>13.3568</v>
@@ -16882,10 +16885,10 @@
         <v>620870.6889</v>
       </c>
       <c r="K50" s="1">
-        <v>632562.4208</v>
+        <v>632616.0061999999</v>
       </c>
       <c r="L50" s="1">
-        <v>13.8516</v>
+        <v>13.8527</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.2487</v>
@@ -16935,10 +16938,10 @@
         <v>625676.4129</v>
       </c>
       <c r="K51" s="1">
-        <v>654684.7404</v>
+        <v>654738.3257</v>
       </c>
       <c r="L51" s="1">
-        <v>13.8352</v>
+        <v>13.8364</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>13.3991</v>
@@ -16988,10 +16991,10 @@
         <v>642852.3105</v>
       </c>
       <c r="K52" s="1">
-        <v>664684.7404</v>
+        <v>664738.3257</v>
       </c>
       <c r="L52" s="1">
-        <v>13.8264</v>
+        <v>13.8276</v>
       </c>
       <c r="M52" s="1">
         <v>0.4</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>13.5985</v>
@@ -17041,10 +17044,10 @@
         <v>679833.6553</v>
       </c>
       <c r="K53" s="1">
-        <v>674684.7404</v>
+        <v>674738.3257</v>
       </c>
       <c r="L53" s="1">
-        <v>13.8203</v>
+        <v>13.8214</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>13.6955</v>
@@ -17094,10 +17097,10 @@
         <v>694644.2339</v>
       </c>
       <c r="K54" s="1">
-        <v>701991.1747</v>
+        <v>702044.7601</v>
       </c>
       <c r="L54" s="1">
-        <v>13.8127</v>
+        <v>13.8137</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>13.3398</v>
@@ -17147,10 +17150,10 @@
         <v>686303.6936</v>
       </c>
       <c r="K55" s="1">
-        <v>711991.1747</v>
+        <v>712044.7601</v>
       </c>
       <c r="L55" s="1">
-        <v>13.8114</v>
+        <v>13.8124</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.8469</v>
@@ -17200,10 +17203,10 @@
         <v>684456.5653</v>
       </c>
       <c r="K56" s="1">
-        <v>721991.1747</v>
+        <v>722044.7601</v>
       </c>
       <c r="L56" s="1">
-        <v>13.805</v>
+        <v>13.8061</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>13.129</v>
@@ -17253,10 +17256,10 @@
         <v>709606.3268</v>
       </c>
       <c r="K57" s="1">
-        <v>745909.9463</v>
+        <v>745963.5316</v>
       </c>
       <c r="L57" s="1">
-        <v>13.773</v>
+        <v>13.774</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>12.716</v>
@@ -17306,10 +17309,10 @@
         <v>696934.8784</v>
       </c>
       <c r="K58" s="1">
-        <v>755909.9463</v>
+        <v>755963.5316</v>
       </c>
       <c r="L58" s="1">
-        <v>13.7645</v>
+        <v>13.7655</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>12.4613</v>
@@ -17359,10 +17362,10 @@
         <v>707563.1197</v>
       </c>
       <c r="K59" s="1">
-        <v>765909.9463</v>
+        <v>765963.5316</v>
       </c>
       <c r="L59" s="1">
-        <v>13.7501</v>
+        <v>13.751</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>12.6545</v>
@@ -17412,10 +17415,10 @@
         <v>728586.6544999999</v>
       </c>
       <c r="K60" s="1">
-        <v>790737.6468</v>
+        <v>790791.2322</v>
       </c>
       <c r="L60" s="1">
-        <v>13.7065</v>
+        <v>13.7074</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>12.2345</v>
@@ -17465,10 +17468,10 @@
         <v>714032.1509</v>
       </c>
       <c r="K61" s="1">
-        <v>800737.6468</v>
+        <v>800791.2322</v>
       </c>
       <c r="L61" s="1">
-        <v>13.6927</v>
+        <v>13.6936</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>12.1636</v>
@@ -17518,10 +17521,10 @@
         <v>735589.4312</v>
       </c>
       <c r="K62" s="1">
-        <v>810737.6468</v>
+        <v>810791.2322</v>
       </c>
       <c r="L62" s="1">
-        <v>13.6729</v>
+        <v>13.6739</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.5931</v>
       </c>
       <c r="D3" s="1">
-        <v>13.2894</v>
+        <v>13.2966</v>
       </c>
       <c r="E3" s="1">
-        <v>13.3089</v>
+        <v>13.3147</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4939</v>
+        <v>13.4963</v>
       </c>
       <c r="G3" s="1">
-        <v>13.6729</v>
+        <v>13.6739</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>226580.6409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9122</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1124</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9649</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9192</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9072</v>
       </c>
     </row>
   </sheetData>
